--- a/biology/Médecine/Classe_ATC_D05/Classe_ATC_D05.xlsx
+++ b/biology/Médecine/Classe_ATC_D05/Classe_ATC_D05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D05, dénommée « Médicaments contre le psoriasis », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD05, « Médicaments pour les troubles kératoséborrhéiques »[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D05, dénommée « Médicaments contre le psoriasis », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD05, « Médicaments pour les troubles kératoséborrhéiques ». Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,16 +525,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D05AA Goudrons
-Classe vide.
-D05AC Dérivés anthracéniques
-D05AC01 Dithranol
-D05AC51 Dithranol, associations
-D05AD Psoralènes à usage topique
-D05AD01 Trioxysalène (en)
-D05AD02 Méthoxsalène
-D05AX Autres médicaments contre le psoriasis à usage topique
-Dans le domaine vétérinaire ce sous-groupe s'intitule « QD05AX Autres médicaments pour les affections kératoséborrhéiques, à usage topique ».
+          <t>D05AA Goudrons</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D05A Médicaments contre le psoriasis à usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D05AC Dérivés anthracéniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D05AC01 Dithranol
+D05AC51 Dithranol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D05A Médicaments contre le psoriasis à usage topique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D05AD Psoralènes à usage topique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D05AD01 Trioxysalène (en)
+D05AD02 Méthoxsalène</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D05A Médicaments contre le psoriasis à usage topique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D05AX Autres médicaments contre le psoriasis à usage topique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le domaine vétérinaire ce sous-groupe s'intitule « QD05AX Autres médicaments pour les affections kératoséborrhéiques, à usage topique ».
 D05AX01 Acide fumarique
 D05AX02 Calcipotriol
 D05AX03 Calcitriol
@@ -532,41 +651,114 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Classe_ATC_D05</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>D05B Médicaments contre le psoriasis à usage systémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D05BA Psoralènes à usage systémique
-D05BA01 Trioxysalène (en)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D05BA Psoralènes à usage systémique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D05BA01 Trioxysalène (en)
 D05BA02 Méthoxsalène
-D05BA03 5-méthoxypsoralène
-D05BB Rétinoïdes pour le traitement du psoriasis
-D05BB01 Étrétinate (en)
-D05BB02 Acitrétine
-D05BX Autres médicaments contre le psoriasis à usage systémique
-D05BX51 Dérivés de l'acide fumarique, associations</t>
+D05BA03 5-méthoxypsoralène</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D05B Médicaments contre le psoriasis à usage systémique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D05BB Rétinoïdes pour le traitement du psoriasis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D05BB01 Étrétinate (en)
+D05BB02 Acitrétine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D05B Médicaments contre le psoriasis à usage systémique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D05BX Autres médicaments contre le psoriasis à usage systémique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D05BX51 Dérivés de l'acide fumarique, associations</t>
         </is>
       </c>
     </row>
